--- a/assets/excel/2021_1-3-3.xlsx
+++ b/assets/excel/2021_1-3-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D16408-3C0E-40B3-8DE8-91F0E2482607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150C5C6-CE7F-4510-B3C3-E1FBDDFE9DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{7703AB80-F1CF-4318-9226-79FBDEF0A3EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
+  </si>
+  <si>
+    <t>3) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -474,6 +477,66 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -519,65 +582,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -899,8 +905,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:I113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A100" activeCellId="9" sqref="A19:XFD19 A28:XFD28 A37:XFD37 A46:XFD46 A55:XFD55 A64:XFD64 A73:XFD73 A82:XFD82 A91:XFD91 A100:XFD100"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,24 +943,24 @@
       <c r="H4" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
@@ -964,20 +970,20 @@
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="42">
+      <c r="B8" s="54"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="62">
         <v>1000</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
@@ -989,16 +995,16 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -1234,29 +1240,29 @@
         <v>6.8790675434502386</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
+    <row r="19" spans="2:9" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="31">
         <v>2019</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="32">
         <v>901.27668999999992</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="32">
         <v>849.51499000000001</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="32">
         <v>1750.7916799999998</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="32">
         <v>23.162045742160423</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="32">
         <v>21.488407719555159</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="32">
         <v>22.318593133632049</v>
       </c>
     </row>
@@ -1468,29 +1474,29 @@
         <v>7.0910286799076374</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+    <row r="28" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="34">
         <v>2018</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="35">
         <v>890.39656000000002</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="35">
         <v>835.70993999999996</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="35">
         <v>1726.1064999999999</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="36">
         <v>22.901341234937014</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="36">
         <v>21.23485221499984</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="36">
         <v>22.063028024296166</v>
       </c>
     </row>
@@ -1702,29 +1708,29 @@
         <v>7.5841635221640464</v>
       </c>
     </row>
-    <row r="37" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+    <row r="37" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="39">
         <v>2017</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="40">
         <v>903.37135999999998</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="40">
         <v>830.04367000000002</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="41">
         <v>1733.4150300000001</v>
       </c>
-      <c r="G37" s="55">
+      <c r="G37" s="40">
         <v>23.100347968141332</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H37" s="40">
         <v>21.049441801976815</v>
       </c>
-      <c r="I37" s="55">
+      <c r="I37" s="40">
         <v>22.070629931060427</v>
       </c>
     </row>
@@ -1936,29 +1942,29 @@
         <v>6.9503962023222332</v>
       </c>
     </row>
-    <row r="46" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="57" t="s">
+    <row r="46" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="58">
+      <c r="C46" s="43">
         <v>2016</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="44">
         <v>811.39817000000005</v>
       </c>
-      <c r="E46" s="59">
+      <c r="E46" s="44">
         <v>745.77777000000003</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="44">
         <v>1557.1759400000001</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="45">
         <v>20.634704180389164</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="45">
         <v>18.553292572954316</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="45">
         <v>19.582553248431527</v>
       </c>
     </row>
@@ -2170,29 +2176,29 @@
         <v>5.7475958434398793</v>
       </c>
     </row>
-    <row r="55" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="61" t="s">
+    <row r="55" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="53">
+      <c r="C55" s="38">
         <v>2015</v>
       </c>
-      <c r="D55" s="62">
+      <c r="D55" s="47">
         <v>712.12392</v>
       </c>
-      <c r="E55" s="62">
+      <c r="E55" s="47">
         <v>688.07578999999998</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="47">
         <v>1400.1997099999999</v>
       </c>
-      <c r="G55" s="63">
+      <c r="G55" s="48">
         <v>18.445163297865253</v>
       </c>
-      <c r="H55" s="63">
+      <c r="H55" s="48">
         <v>17.247221093805312</v>
       </c>
-      <c r="I55" s="63">
+      <c r="I55" s="48">
         <v>17.836370489185171</v>
       </c>
     </row>
@@ -2404,29 +2410,29 @@
         <v>6.1545574568264731</v>
       </c>
     </row>
-    <row r="64" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="61" t="s">
+    <row r="64" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="53">
+      <c r="C64" s="38">
         <v>2014</v>
       </c>
-      <c r="D64" s="62">
+      <c r="D64" s="47">
         <v>682.78253000000007</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E64" s="47">
         <v>674.53195999999991</v>
       </c>
-      <c r="F64" s="62">
+      <c r="F64" s="47">
         <v>1357.31449</v>
       </c>
-      <c r="G64" s="63">
+      <c r="G64" s="48">
         <v>17.83351649983074</v>
       </c>
-      <c r="H64" s="63">
+      <c r="H64" s="48">
         <v>16.98877828631047</v>
       </c>
-      <c r="I64" s="63">
+      <c r="I64" s="48">
         <v>17.40346761281436</v>
       </c>
     </row>
@@ -2638,29 +2644,29 @@
         <v>6.2594860545427791</v>
       </c>
     </row>
-    <row r="73" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61" t="s">
+    <row r="73" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="38">
         <v>2013</v>
       </c>
-      <c r="D73" s="62">
+      <c r="D73" s="47">
         <v>678.93489</v>
       </c>
-      <c r="E73" s="62">
+      <c r="E73" s="47">
         <v>667.13641000000007</v>
       </c>
-      <c r="F73" s="62">
+      <c r="F73" s="47">
         <v>1346.0713000000001</v>
       </c>
-      <c r="G73" s="63">
+      <c r="G73" s="48">
         <v>17.807494852622437</v>
       </c>
-      <c r="H73" s="63">
+      <c r="H73" s="48">
         <v>16.798116779819892</v>
       </c>
-      <c r="I73" s="63">
+      <c r="I73" s="48">
         <v>17.292506051215074</v>
       </c>
     </row>
@@ -2872,29 +2878,29 @@
         <v>5.5230839389136737</v>
       </c>
     </row>
-    <row r="82" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="61" t="s">
+    <row r="82" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="53">
+      <c r="C82" s="38">
         <v>2012</v>
       </c>
-      <c r="D82" s="62">
+      <c r="D82" s="47">
         <v>649.69659000000001</v>
       </c>
-      <c r="E82" s="62">
+      <c r="E82" s="47">
         <v>649.03673000000003</v>
       </c>
-      <c r="F82" s="62">
+      <c r="F82" s="47">
         <v>1298.73332</v>
       </c>
-      <c r="G82" s="63">
+      <c r="G82" s="48">
         <v>17.058831624170956</v>
       </c>
-      <c r="H82" s="63">
+      <c r="H82" s="48">
         <v>16.34956823611725</v>
       </c>
-      <c r="I82" s="63">
+      <c r="I82" s="48">
         <v>16.696851168695275</v>
       </c>
     </row>
@@ -3106,29 +3112,29 @@
         <v>5.2533557909379258</v>
       </c>
     </row>
-    <row r="91" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="61" t="s">
+    <row r="91" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="53">
+      <c r="C91" s="38">
         <v>2011</v>
       </c>
-      <c r="D91" s="62">
+      <c r="D91" s="47">
         <v>632.64346999999998</v>
       </c>
-      <c r="E91" s="62">
+      <c r="E91" s="47">
         <v>634.95849999999996</v>
       </c>
-      <c r="F91" s="62">
+      <c r="F91" s="47">
         <v>1267.6019699999999</v>
       </c>
-      <c r="G91" s="63">
+      <c r="G91" s="48">
         <v>16.630813462846206</v>
       </c>
-      <c r="H91" s="63">
+      <c r="H91" s="48">
         <v>15.97679518505117</v>
       </c>
-      <c r="I91" s="63">
+      <c r="I91" s="48">
         <v>16.296648469859321</v>
       </c>
     </row>
@@ -3340,29 +3346,29 @@
         <v>4.9863358168134653</v>
       </c>
     </row>
-    <row r="100" spans="2:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="61" t="s">
+    <row r="100" spans="2:9" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="53">
+      <c r="C100" s="38">
         <v>2010</v>
       </c>
-      <c r="D100" s="64">
+      <c r="D100" s="49">
         <v>675279.86</v>
       </c>
-      <c r="E100" s="64">
+      <c r="E100" s="49">
         <v>659548.39</v>
       </c>
-      <c r="F100" s="64">
+      <c r="F100" s="49">
         <v>1334828.25</v>
       </c>
-      <c r="G100" s="63">
+      <c r="G100" s="48">
         <v>17.354245878988959</v>
       </c>
-      <c r="H100" s="63">
+      <c r="H100" s="48">
         <v>16.359403957756633</v>
       </c>
-      <c r="I100" s="63">
+      <c r="I100" s="48">
         <v>16.848005964825198</v>
       </c>
     </row>
@@ -3377,68 +3383,70 @@
       <c r="I101" s="26"/>
     </row>
     <row r="102" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
     </row>
     <row r="103" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
     </row>
     <row r="104" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
     </row>
     <row r="105" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
     </row>
     <row r="106" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-    </row>
-    <row r="107" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="52"/>
+    </row>
+    <row r="107" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
     </row>
     <row r="108" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="26" t="s">
@@ -3474,7 +3482,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B107:I107"/>
     <mergeCell ref="B102:I104"/>
     <mergeCell ref="B105:I106"/>
     <mergeCell ref="B6:B9"/>
